--- a/biology/Médecine/Quatorze_besoins_fondamentaux_selon_Virginia_Henderson/Quatorze_besoins_fondamentaux_selon_Virginia_Henderson.xlsx
+++ b/biology/Médecine/Quatorze_besoins_fondamentaux_selon_Virginia_Henderson/Quatorze_besoins_fondamentaux_selon_Virginia_Henderson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les 14 besoins fondamentaux
-Les quatorze besoins fondamentaux selon Virginia Henderson représentent un modèle conceptuel en sciences humaines et notamment en soins infirmiers. Ils font partie des courants de pensée infirmière et sont proposés par Virginia Henderson depuis 1947[1]. La vision de l'interdépendance des besoins humains et de leurs satisfactions, issue de la pratique de Virginia Henderson, est fortement marquée par le courant behavioriste. Enseigné durant les études en soins infirmiers, le concept des quatorze besoins fondamentaux se base notamment sur l'expérimentation personnelle[2],[3].
+Les quatorze besoins fondamentaux selon Virginia Henderson représentent un modèle conceptuel en sciences humaines et notamment en soins infirmiers. Ils font partie des courants de pensée infirmière et sont proposés par Virginia Henderson depuis 1947. La vision de l'interdépendance des besoins humains et de leurs satisfactions, issue de la pratique de Virginia Henderson, est fortement marquée par le courant behavioriste. Enseigné durant les études en soins infirmiers, le concept des quatorze besoins fondamentaux se base notamment sur l'expérimentation personnelle,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description du modèle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le modèle de Virginia Henderson, les besoins fondamentaux de l'être humain peuvent être classés selon une liste ordonnée que les professionnels de santé utilisent lors des soins d'une personne malade ou en bonne santé.
 Virginia Henderson établit son classement se basant sur une vision paradigmatique, par une approche à la fois biologique et physiologique (les besoins primaires, homéostasie), psychologique et sociale (les besoins secondaires), et même spirituelle (bien-être, besoin tertiaire et développement personnel).
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Définition assurantielle de la dépendance
-En France, par exemple, l'action sociale, et les contrats d'assurance couvrant la garantie dépendance sont construits sur des grilles d'évaluation de la perte d'autonomie : 
+          <t>Définition assurantielle de la dépendance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En France, par exemple, l'action sociale, et les contrats d'assurance couvrant la garantie dépendance sont construits sur des grilles d'évaluation de la perte d'autonomie : 
 soit la grille AGGIR (acronyme de « autonomie gérontologique groupes iso-ressources ») ;
 soit une combinaison des 4 besoins considérés comme fondamentaux :
 se lever et se déplacer tout seul ;
